--- a/doc/棋盘数据结构.xlsx
+++ b/doc/棋盘数据结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高铭\坚果云\硕士\点格棋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高铭\坚果云\硕士\点格棋\Dots-and-Boxes\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,51 +50,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,22 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -202,54 +218,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -566,304 +603,554 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.75" style="1"/>
+    <col min="1" max="16384" width="3.75" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-31</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-39</v>
+      </c>
+      <c r="G2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-11</v>
+      </c>
+      <c r="K2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>36</v>
+      </c>
+      <c r="M2" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-33</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-19</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-53</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-52</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-17</v>
+      </c>
+      <c r="K3" s="3">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-7</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-15</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-54</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-49</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-51</v>
+      </c>
+      <c r="K4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-9</v>
+      </c>
+      <c r="M4" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-55</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-27</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-56</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-29</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-48</v>
+      </c>
+      <c r="I6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-50</v>
+      </c>
+      <c r="K6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-23</v>
+      </c>
+      <c r="M6" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-57</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-23</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-21</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-15</v>
+      </c>
+      <c r="K7" s="3">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-58</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-47</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45</v>
+      </c>
+      <c r="K8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>24</v>
+      </c>
+      <c r="M8" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-24</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-12</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-46</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-11</v>
+      </c>
+      <c r="K9" s="3">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-8</v>
+      </c>
+      <c r="M9" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-59</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-17</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18</v>
+      </c>
+      <c r="K10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-41</v>
+      </c>
+      <c r="M10" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-25</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-34</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-37</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-9</v>
+      </c>
+      <c r="M11" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-43</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-60</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>35</v>
+      </c>
+      <c r="I12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>32</v>
+      </c>
+      <c r="K12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-42</v>
+      </c>
+      <c r="M12" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8">
-        <v>6</v>
-      </c>
-      <c r="J1" s="8">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8">
-        <v>8</v>
-      </c>
-      <c r="L1" s="8">
-        <v>9</v>
-      </c>
-      <c r="M1" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:M12">
+  <conditionalFormatting sqref="C3:M3 D2 D4:D12 C11 E11:M11 C5 E5:M5 C7 E7:M7 C9 E9:M9 L2 L4 L6 L8 L10 L12 J2 J4 J6 J8 J10 J12 H2 H4 H6 H8 H10 H12 F2 F4 F6 F8 F10 F12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:M3 D2 D4:D12 C11 E11:M11 C5 E5:M5 C7 E7:M7 C9 E9:M9 L2 L4 L6 L8 L10 L12 J2 J4 J6 J8 J10 J12 H2 H4 H6 H8 H10 H12 F2 F4 F6 F8 F10 F12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2 E2 G2 I2 K2 M2 M4 K4 I4 G4 E4 C4 C6 E6 G6 I6 K6 M6 M8 K8 I8 G8 E8 C8 C10 E10 G10 I10 K10 M10 M12 K12 I12 G12 E12 C12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
